--- a/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E2D8-46AA-457D-9221-1611EFF927EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,12 +697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -676,7 +711,7 @@
     <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,7 +720,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +731,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +742,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +751,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +762,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,7 +773,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +782,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -789,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -798,7 +833,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -809,7 +844,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -830,7 +865,7 @@
         <v>1915047</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -851,7 +886,7 @@
         <v>-6478</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
@@ -872,7 +907,7 @@
         <v>1908569</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -893,7 +928,7 @@
         <v>63985</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
@@ -914,7 +949,7 @@
         <v>-837766</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
@@ -925,7 +960,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
@@ -946,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -967,7 +1002,7 @@
         <v>-231536</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
@@ -988,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>-25037</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1072,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1093,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1149,7 @@
         <v>-700000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1156,7 +1191,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
@@ -1261,7 +1296,7 @@
         <v>57353</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>-1670947</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>237622</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>42</v>
       </c>
@@ -1314,7 +1349,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1335,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1412,7 @@
         <v>-10564</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1398,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1461,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1629,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1685,7 @@
         <v>-1034</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>59</v>
       </c>
@@ -1671,7 +1706,7 @@
         <v>-11598</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>60</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>226024</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1713,7 +1748,7 @@
         <v>934424</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>1160448</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
@@ -1776,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E2D8-46AA-457D-9221-1611EFF927EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47DFBAC-7936-400E-BDB5-B849EAD026C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-21 (5)</t>
-  </si>
-  <si>
-    <t>1401-08-21 (10)</t>
+    <t>1400-07-28 (2)</t>
+  </si>
+  <si>
+    <t>1400-12-25 (11)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1401-06-13 (4)</t>
+  </si>
+  <si>
+    <t>1401-12-07 (7)</t>
+  </si>
+  <si>
+    <t>1401-12-08 (13)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -67,7 +94,10 @@
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-08-21 (4)</t>
+    <t>1401-12-07 (6)</t>
+  </si>
+  <si>
+    <t>1401-12-08</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -698,20 +728,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +752,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +768,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +784,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +798,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +814,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +830,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +844,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +870,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +930,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +946,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>415076</v>
+      </c>
+      <c r="E12" s="15">
+        <v>925145</v>
+      </c>
+      <c r="F12" s="15">
+        <v>648240</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1426466</v>
+      </c>
+      <c r="H12" s="15">
         <v>1542269</v>
       </c>
-      <c r="E12" s="15">
+      <c r="I12" s="15">
         <v>1835539</v>
       </c>
-      <c r="F12" s="15">
+      <c r="J12" s="15">
         <v>1021932</v>
       </c>
-      <c r="G12" s="15">
+      <c r="K12" s="15">
         <v>-742824</v>
       </c>
-      <c r="H12" s="15">
+      <c r="L12" s="15">
         <v>1915047</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="15">
+        <v>1530416</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-2195</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-115</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-12141</v>
+      </c>
+      <c r="H13" s="11">
         <v>-3352</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>-6000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>-10000</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>-6478</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>-9176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>412881</v>
+      </c>
+      <c r="E14" s="17">
+        <v>925030</v>
+      </c>
+      <c r="F14" s="17">
+        <v>648240</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1414325</v>
+      </c>
+      <c r="H14" s="17">
         <v>1538917</v>
       </c>
-      <c r="E14" s="17">
+      <c r="I14" s="17">
         <v>1835539</v>
       </c>
-      <c r="F14" s="17">
+      <c r="J14" s="17">
         <v>1015932</v>
       </c>
-      <c r="G14" s="17">
+      <c r="K14" s="17">
         <v>-752824</v>
       </c>
-      <c r="H14" s="17">
+      <c r="L14" s="17">
         <v>1908569</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="17">
+        <v>1521240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="11">
+        <v>115312</v>
+      </c>
+      <c r="H15" s="11">
         <v>23879</v>
       </c>
-      <c r="E15" s="11">
+      <c r="I15" s="11">
         <v>28049</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="J15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="11">
         <v>172841</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>63985</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M15" s="11">
+        <v>269068</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-873223</v>
+      </c>
+      <c r="H16" s="15">
         <v>-177811</v>
       </c>
-      <c r="E16" s="15">
+      <c r="I16" s="15">
         <v>-426371</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="J16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="15">
         <v>-1082290</v>
       </c>
-      <c r="H16" s="15">
+      <c r="L16" s="15">
         <v>-837766</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="15">
+        <v>-1393719</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -959,52 +1142,87 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E18" s="15">
+        <v>-256</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>6358</v>
       </c>
-      <c r="F18" s="15">
+      <c r="J18" s="15">
         <v>3539</v>
       </c>
-      <c r="G18" s="15">
+      <c r="K18" s="15">
         <v>-6</v>
       </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>-100179</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-122268</v>
+      </c>
+      <c r="F19" s="11">
+        <v>-524171</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-112925</v>
+      </c>
+      <c r="H19" s="11">
         <v>-157417</v>
       </c>
-      <c r="E19" s="11">
+      <c r="I19" s="11">
         <v>-405560</v>
       </c>
-      <c r="F19" s="11">
+      <c r="J19" s="11">
         <v>-164355</v>
       </c>
-      <c r="G19" s="11">
+      <c r="K19" s="11">
         <v>-230993</v>
       </c>
-      <c r="H19" s="11">
+      <c r="L19" s="11">
         <v>-231536</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <v>-204325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1014,60 +1232,105 @@
         <v>0</v>
       </c>
       <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
         <v>66264</v>
       </c>
-      <c r="G20" s="15">
+      <c r="K20" s="15">
         <v>-66264</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>71370</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>59120</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>59311</v>
       </c>
       <c r="G21" s="11">
-        <v>0</v>
+        <v>-59311</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>-910</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-1406</v>
+      </c>
+      <c r="F22" s="15">
+        <v>-2621</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-130626</v>
+      </c>
+      <c r="H22" s="15">
         <v>-21</v>
       </c>
-      <c r="E22" s="15">
+      <c r="I22" s="15">
         <v>1</v>
       </c>
-      <c r="F22" s="15">
+      <c r="J22" s="15">
         <v>-40</v>
       </c>
-      <c r="G22" s="15">
+      <c r="K22" s="15">
         <v>40</v>
       </c>
-      <c r="H22" s="15">
+      <c r="L22" s="15">
         <v>-25037</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1085,10 +1348,25 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
@@ -1106,10 +1384,25 @@
       <c r="H24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1127,31 +1420,61 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
         <v>0</v>
       </c>
       <c r="E26" s="15">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
         <v>-900000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="J26" s="15">
         <v>-1400000</v>
       </c>
-      <c r="G26" s="15">
+      <c r="K26" s="15">
         <v>1400000</v>
       </c>
-      <c r="H26" s="15">
+      <c r="L26" s="15">
         <v>-700000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="15">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1169,10 +1492,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1182,22 +1520,37 @@
         <v>0</v>
       </c>
       <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
         <v>-40735</v>
       </c>
-      <c r="G28" s="15">
+      <c r="K28" s="15">
         <v>-9756</v>
       </c>
-      <c r="H28" s="15">
+      <c r="L28" s="15">
         <v>2054</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M28" s="15">
+        <v>11041</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
-        <v>0</v>
+        <v>-49672</v>
       </c>
       <c r="E29" s="11">
         <v>0</v>
@@ -1211,31 +1564,61 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>-296410</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>-393602</v>
       </c>
       <c r="F30" s="15">
+        <v>-398173</v>
+      </c>
+      <c r="G30" s="15">
+        <v>398173</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
         <v>-405925</v>
       </c>
-      <c r="G30" s="15">
+      <c r="K30" s="15">
         <v>405925</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
@@ -1253,10 +1636,25 @@
       <c r="H31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15">
@@ -1274,73 +1672,133 @@
       <c r="H32" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
+        <v>180</v>
+      </c>
+      <c r="E33" s="11">
+        <v>65</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3220</v>
+      </c>
+      <c r="G33" s="11">
+        <v>923</v>
+      </c>
+      <c r="H33" s="11">
         <v>4095</v>
       </c>
-      <c r="E33" s="11">
+      <c r="I33" s="11">
         <v>40944</v>
       </c>
-      <c r="F33" s="11">
+      <c r="J33" s="11">
         <v>110547</v>
       </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11">
         <v>99096</v>
       </c>
-      <c r="H33" s="11">
+      <c r="L33" s="11">
         <v>57353</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M33" s="11">
+        <v>94722</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17">
+        <v>-375560</v>
+      </c>
+      <c r="E34" s="17">
+        <v>-458547</v>
+      </c>
+      <c r="F34" s="17">
+        <v>-862434</v>
+      </c>
+      <c r="G34" s="17">
+        <v>-661677</v>
+      </c>
+      <c r="H34" s="17">
         <v>-307275</v>
       </c>
-      <c r="E34" s="17">
+      <c r="I34" s="17">
         <v>-1656579</v>
       </c>
-      <c r="F34" s="17">
+      <c r="J34" s="17">
         <v>-1830705</v>
       </c>
-      <c r="G34" s="17">
+      <c r="K34" s="17">
         <v>688593</v>
       </c>
-      <c r="H34" s="17">
+      <c r="L34" s="17">
         <v>-1670947</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M34" s="17">
+        <v>-619148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
+        <v>37321</v>
+      </c>
+      <c r="E35" s="19">
+        <v>466483</v>
+      </c>
+      <c r="F35" s="19">
+        <v>-214194</v>
+      </c>
+      <c r="G35" s="19">
+        <v>752648</v>
+      </c>
+      <c r="H35" s="19">
         <v>1231642</v>
       </c>
-      <c r="E35" s="19">
+      <c r="I35" s="19">
         <v>178960</v>
       </c>
-      <c r="F35" s="19">
+      <c r="J35" s="19">
         <v>-814773</v>
       </c>
-      <c r="G35" s="19">
+      <c r="K35" s="19">
         <v>-64231</v>
       </c>
-      <c r="H35" s="19">
+      <c r="L35" s="19">
         <v>237622</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M35" s="19">
+        <v>902092</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1348,10 +1806,15 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1369,20 +1832,35 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1390,10 +1868,25 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1403,49 +1896,79 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
         <v>32527</v>
       </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
         <v>7806</v>
       </c>
-      <c r="H39" s="15">
+      <c r="L39" s="15">
         <v>-10564</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M39" s="15">
+        <v>133462</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-113800</v>
+      </c>
+      <c r="H40" s="11">
         <v>24920</v>
       </c>
-      <c r="E40" s="11">
+      <c r="I40" s="11">
         <v>-27215</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>-139740</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="F41" s="15">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -1453,52 +1976,97 @@
       <c r="H41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>0</v>
+        <v>-400000</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
+        <v>-400000</v>
       </c>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>-270000</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
+        <v>-24646</v>
+      </c>
+      <c r="E43" s="15">
+        <v>-2291</v>
+      </c>
+      <c r="F43" s="15">
+        <v>-24917</v>
+      </c>
+      <c r="G43" s="15">
+        <v>-15846</v>
+      </c>
+      <c r="H43" s="15">
         <v>-89</v>
       </c>
-      <c r="E43" s="15">
+      <c r="I43" s="15">
         <v>-864</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1516,10 +2084,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1537,10 +2120,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2156,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,10 +2192,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2228,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,10 +2264,25 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
@@ -1642,10 +2300,25 @@
       <c r="H50" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,136 +2336,241 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
+        <v>-39521</v>
+      </c>
+      <c r="E52" s="11">
+        <v>20001</v>
+      </c>
+      <c r="F52" s="11">
+        <v>-60881</v>
+      </c>
+      <c r="G52" s="11">
+        <v>-1536</v>
+      </c>
+      <c r="H52" s="11">
         <v>-2399</v>
       </c>
-      <c r="E52" s="11">
+      <c r="I52" s="11">
         <v>-145453</v>
       </c>
-      <c r="F52" s="11">
+      <c r="J52" s="11">
         <v>-216372</v>
       </c>
-      <c r="G52" s="11">
+      <c r="K52" s="11">
         <v>-7832</v>
       </c>
-      <c r="H52" s="11">
+      <c r="L52" s="11">
         <v>-1034</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M52" s="11">
+        <v>-1004454</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
+        <v>-64167</v>
+      </c>
+      <c r="E53" s="17">
+        <v>17710</v>
+      </c>
+      <c r="F53" s="17">
+        <v>-215798</v>
+      </c>
+      <c r="G53" s="17">
+        <v>-401182</v>
+      </c>
+      <c r="H53" s="17">
         <v>22432</v>
       </c>
-      <c r="E53" s="17">
+      <c r="I53" s="17">
         <v>-173532</v>
       </c>
-      <c r="F53" s="17">
+      <c r="J53" s="17">
         <v>-183845</v>
       </c>
-      <c r="G53" s="17">
+      <c r="K53" s="17">
         <v>-26</v>
       </c>
-      <c r="H53" s="17">
+      <c r="L53" s="17">
         <v>-11598</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M53" s="17">
+        <v>-1010732</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
+        <v>-26846</v>
+      </c>
+      <c r="E54" s="19">
+        <v>484193</v>
+      </c>
+      <c r="F54" s="19">
+        <v>-429992</v>
+      </c>
+      <c r="G54" s="19">
+        <v>351466</v>
+      </c>
+      <c r="H54" s="19">
         <v>1254074</v>
       </c>
-      <c r="E54" s="19">
+      <c r="I54" s="19">
         <v>5428</v>
       </c>
-      <c r="F54" s="19">
+      <c r="J54" s="19">
         <v>-998618</v>
       </c>
-      <c r="G54" s="19">
+      <c r="K54" s="19">
         <v>-64257</v>
       </c>
-      <c r="H54" s="19">
+      <c r="L54" s="19">
         <v>226024</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M54" s="19">
+        <v>-108640</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
+        <v>358922</v>
+      </c>
+      <c r="E55" s="15">
+        <v>332076</v>
+      </c>
+      <c r="F55" s="15">
+        <v>816269</v>
+      </c>
+      <c r="G55" s="15">
+        <v>386277</v>
+      </c>
+      <c r="H55" s="15">
         <v>737743</v>
       </c>
-      <c r="E55" s="15">
+      <c r="I55" s="15">
         <v>1991817</v>
       </c>
-      <c r="F55" s="15">
+      <c r="J55" s="15">
         <v>1997299</v>
       </c>
-      <c r="G55" s="15">
+      <c r="K55" s="15">
         <v>998681</v>
       </c>
-      <c r="H55" s="15">
+      <c r="L55" s="15">
         <v>934424</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M55" s="15">
+        <v>1160448</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
         <v>54</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>332076</v>
+      </c>
+      <c r="E57" s="17">
+        <v>816269</v>
+      </c>
+      <c r="F57" s="17">
+        <v>386277</v>
+      </c>
+      <c r="G57" s="17">
+        <v>737743</v>
+      </c>
+      <c r="H57" s="17">
         <v>1991817</v>
       </c>
-      <c r="E57" s="17">
+      <c r="I57" s="17">
         <v>1997299</v>
       </c>
-      <c r="F57" s="17">
+      <c r="J57" s="17">
         <v>998681</v>
       </c>
-      <c r="G57" s="17">
+      <c r="K57" s="17">
         <v>934424</v>
       </c>
-      <c r="H57" s="17">
+      <c r="L57" s="17">
         <v>1160448</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M57" s="17">
+        <v>1053236</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
@@ -1810,8 +2588,23 @@
       <c r="H58" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2612,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47DFBAC-7936-400E-BDB5-B849EAD026C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2F0E8-42D8-4AF3-9E3F-96A1D7B6E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-28 (2)</t>
-  </si>
-  <si>
     <t>1400-12-25 (11)</t>
   </si>
   <si>
@@ -82,22 +79,25 @@
     <t>1401-06-13 (4)</t>
   </si>
   <si>
-    <t>1401-12-07 (7)</t>
-  </si>
-  <si>
-    <t>1401-12-08 (13)</t>
-  </si>
-  <si>
-    <t>1401-01-30</t>
+    <t>1401-12-03 (6)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (14)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (2)</t>
   </si>
   <si>
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-12-07 (6)</t>
-  </si>
-  <si>
-    <t>1401-12-08</t>
+    <t>1401-12-03 (5)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -732,19 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -758,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -804,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -936,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -952,115 +952,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>415076</v>
+        <v>925145</v>
       </c>
       <c r="E12" s="15">
-        <v>925145</v>
+        <v>648240</v>
       </c>
       <c r="F12" s="15">
-        <v>648240</v>
+        <v>1426466</v>
       </c>
       <c r="G12" s="15">
-        <v>1426466</v>
+        <v>1542269</v>
       </c>
       <c r="H12" s="15">
-        <v>1542269</v>
+        <v>1835539</v>
       </c>
       <c r="I12" s="15">
-        <v>1835539</v>
+        <v>1021932</v>
       </c>
       <c r="J12" s="15">
-        <v>1021932</v>
+        <v>-742824</v>
       </c>
       <c r="K12" s="15">
-        <v>-742824</v>
+        <v>1915047</v>
       </c>
       <c r="L12" s="15">
-        <v>1915047</v>
+        <v>1493020</v>
       </c>
       <c r="M12" s="15">
-        <v>1530416</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>533294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-2195</v>
+        <v>-115</v>
       </c>
       <c r="E13" s="11">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>-12141</v>
       </c>
       <c r="G13" s="11">
-        <v>-12141</v>
+        <v>-3352</v>
       </c>
       <c r="H13" s="11">
-        <v>-3352</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="J13" s="11">
-        <v>-6000</v>
+        <v>-10000</v>
       </c>
       <c r="K13" s="11">
-        <v>-10000</v>
+        <v>-6478</v>
       </c>
       <c r="L13" s="11">
-        <v>-6478</v>
+        <v>-9176</v>
       </c>
       <c r="M13" s="11">
-        <v>-9176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1294</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>412881</v>
+        <v>925030</v>
       </c>
       <c r="E14" s="17">
-        <v>925030</v>
+        <v>648240</v>
       </c>
       <c r="F14" s="17">
-        <v>648240</v>
+        <v>1414325</v>
       </c>
       <c r="G14" s="17">
-        <v>1414325</v>
+        <v>1538917</v>
       </c>
       <c r="H14" s="17">
-        <v>1538917</v>
+        <v>1835539</v>
       </c>
       <c r="I14" s="17">
-        <v>1835539</v>
+        <v>1015932</v>
       </c>
       <c r="J14" s="17">
-        <v>1015932</v>
+        <v>-752824</v>
       </c>
       <c r="K14" s="17">
-        <v>-752824</v>
+        <v>1908569</v>
       </c>
       <c r="L14" s="17">
-        <v>1908569</v>
+        <v>1483844</v>
       </c>
       <c r="M14" s="17">
-        <v>1521240</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>532000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1071,32 +1071,32 @@
       <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>31</v>
+      <c r="F15" s="11">
+        <v>115312</v>
       </c>
       <c r="G15" s="11">
-        <v>115312</v>
+        <v>23879</v>
       </c>
       <c r="H15" s="11">
-        <v>23879</v>
+        <v>28049</v>
       </c>
       <c r="I15" s="11">
-        <v>28049</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>31</v>
+        <v>66264</v>
+      </c>
+      <c r="J15" s="11">
+        <v>172841</v>
       </c>
       <c r="K15" s="11">
-        <v>172841</v>
+        <v>63985</v>
       </c>
       <c r="L15" s="11">
-        <v>63985</v>
+        <v>269068</v>
       </c>
       <c r="M15" s="11">
-        <v>269068</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>196053</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
@@ -1107,32 +1107,32 @@
       <c r="E16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>31</v>
+      <c r="F16" s="15">
+        <v>-873223</v>
       </c>
       <c r="G16" s="15">
-        <v>-873223</v>
+        <v>-177811</v>
       </c>
       <c r="H16" s="15">
-        <v>-177811</v>
+        <v>-426371</v>
       </c>
       <c r="I16" s="15">
-        <v>-426371</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>31</v>
+        <v>-405925</v>
+      </c>
+      <c r="J16" s="15">
+        <v>-1082290</v>
       </c>
       <c r="K16" s="15">
-        <v>-1082290</v>
+        <v>-837766</v>
       </c>
       <c r="L16" s="15">
-        <v>-837766</v>
+        <v>-1393719</v>
       </c>
       <c r="M16" s="15">
-        <v>-1393719</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1346853</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
@@ -1148,16 +1148,16 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>61</v>
+        <v>-256</v>
       </c>
       <c r="E18" s="15">
-        <v>-256</v>
+        <v>0</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -1166,61 +1166,61 @@
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>6358</v>
       </c>
       <c r="I18" s="15">
-        <v>6358</v>
+        <v>3539</v>
       </c>
       <c r="J18" s="15">
-        <v>3539</v>
+        <v>-6</v>
       </c>
       <c r="K18" s="15">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="15">
-        <v>0</v>
+        <v>4065</v>
       </c>
       <c r="M18" s="15">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>-100179</v>
+        <v>-122268</v>
       </c>
       <c r="E19" s="11">
-        <v>-122268</v>
+        <v>-524171</v>
       </c>
       <c r="F19" s="11">
-        <v>-524171</v>
+        <v>-112925</v>
       </c>
       <c r="G19" s="11">
-        <v>-112925</v>
+        <v>-157417</v>
       </c>
       <c r="H19" s="11">
-        <v>-157417</v>
+        <v>-405560</v>
       </c>
       <c r="I19" s="11">
-        <v>-405560</v>
+        <v>-164355</v>
       </c>
       <c r="J19" s="11">
-        <v>-164355</v>
+        <v>-230993</v>
       </c>
       <c r="K19" s="11">
-        <v>-230993</v>
+        <v>-231536</v>
       </c>
       <c r="L19" s="11">
-        <v>-231536</v>
+        <v>-204325</v>
       </c>
       <c r="M19" s="11">
-        <v>-204325</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-316328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <v>66264</v>
+        <v>-66264</v>
       </c>
       <c r="K20" s="15">
-        <v>-66264</v>
+        <v>0</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>71370</v>
+        <v>59120</v>
       </c>
       <c r="E21" s="11">
-        <v>59120</v>
+        <v>59311</v>
       </c>
       <c r="F21" s="11">
-        <v>59311</v>
+        <v>-59311</v>
       </c>
       <c r="G21" s="11">
-        <v>-59311</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
@@ -1292,43 +1292,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>-910</v>
+        <v>-1406</v>
       </c>
       <c r="E22" s="15">
-        <v>-1406</v>
+        <v>-2621</v>
       </c>
       <c r="F22" s="15">
-        <v>-2621</v>
+        <v>-130626</v>
       </c>
       <c r="G22" s="15">
-        <v>-130626</v>
+        <v>-21</v>
       </c>
       <c r="H22" s="15">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15">
-        <v>1</v>
+        <v>-40</v>
       </c>
       <c r="J22" s="15">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K22" s="15">
-        <v>40</v>
+        <v>-25037</v>
       </c>
       <c r="L22" s="15">
-        <v>-25037</v>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1433,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="15">
-        <v>0</v>
+        <v>-900000</v>
       </c>
       <c r="I26" s="15">
-        <v>-900000</v>
+        <v>-1400000</v>
       </c>
       <c r="J26" s="15">
-        <v>-1400000</v>
+        <v>1400000</v>
       </c>
       <c r="K26" s="15">
-        <v>1400000</v>
+        <v>-700000</v>
       </c>
       <c r="L26" s="15">
-        <v>-700000</v>
+        <v>600000</v>
       </c>
       <c r="M26" s="15">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>44</v>
       </c>
@@ -1529,28 +1529,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="15">
-        <v>0</v>
+        <v>-40735</v>
       </c>
       <c r="J28" s="15">
-        <v>-40735</v>
+        <v>-9756</v>
       </c>
       <c r="K28" s="15">
-        <v>-9756</v>
+        <v>2054</v>
       </c>
       <c r="L28" s="15">
-        <v>2054</v>
+        <v>48437</v>
       </c>
       <c r="M28" s="15">
-        <v>11041</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
-        <v>-49672</v>
+        <v>0</v>
       </c>
       <c r="E29" s="11">
         <v>0</v>
@@ -1580,22 +1580,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>-296410</v>
+        <v>-393602</v>
       </c>
       <c r="E30" s="15">
-        <v>-393602</v>
+        <v>-398173</v>
       </c>
       <c r="F30" s="15">
-        <v>-398173</v>
+        <v>398173</v>
       </c>
       <c r="G30" s="15">
-        <v>398173</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <v>-405925</v>
+        <v>405925</v>
       </c>
       <c r="K30" s="15">
-        <v>405925</v>
+        <v>0</v>
       </c>
       <c r="L30" s="15">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>47</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
@@ -1688,115 +1688,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="E33" s="11">
-        <v>65</v>
+        <v>3220</v>
       </c>
       <c r="F33" s="11">
-        <v>3220</v>
+        <v>923</v>
       </c>
       <c r="G33" s="11">
-        <v>923</v>
+        <v>4095</v>
       </c>
       <c r="H33" s="11">
-        <v>4095</v>
+        <v>40944</v>
       </c>
       <c r="I33" s="11">
-        <v>40944</v>
+        <v>110547</v>
       </c>
       <c r="J33" s="11">
-        <v>110547</v>
+        <v>99096</v>
       </c>
       <c r="K33" s="11">
-        <v>99096</v>
+        <v>57353</v>
       </c>
       <c r="L33" s="11">
-        <v>57353</v>
+        <v>94722</v>
       </c>
       <c r="M33" s="11">
-        <v>94722</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>27522</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17">
-        <v>-375560</v>
+        <v>-458547</v>
       </c>
       <c r="E34" s="17">
-        <v>-458547</v>
+        <v>-862434</v>
       </c>
       <c r="F34" s="17">
-        <v>-862434</v>
+        <v>-661677</v>
       </c>
       <c r="G34" s="17">
-        <v>-661677</v>
+        <v>-307275</v>
       </c>
       <c r="H34" s="17">
-        <v>-307275</v>
+        <v>-1656579</v>
       </c>
       <c r="I34" s="17">
-        <v>-1656579</v>
+        <v>-1830705</v>
       </c>
       <c r="J34" s="17">
-        <v>-1830705</v>
+        <v>688593</v>
       </c>
       <c r="K34" s="17">
-        <v>688593</v>
+        <v>-1670947</v>
       </c>
       <c r="L34" s="17">
-        <v>-1670947</v>
+        <v>-581752</v>
       </c>
       <c r="M34" s="17">
-        <v>-619148</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-439132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
-        <v>37321</v>
+        <v>466483</v>
       </c>
       <c r="E35" s="19">
-        <v>466483</v>
+        <v>-214194</v>
       </c>
       <c r="F35" s="19">
-        <v>-214194</v>
+        <v>752648</v>
       </c>
       <c r="G35" s="19">
-        <v>752648</v>
+        <v>1231642</v>
       </c>
       <c r="H35" s="19">
-        <v>1231642</v>
+        <v>178960</v>
       </c>
       <c r="I35" s="19">
-        <v>178960</v>
+        <v>-814773</v>
       </c>
       <c r="J35" s="19">
-        <v>-814773</v>
+        <v>-64231</v>
       </c>
       <c r="K35" s="19">
-        <v>-64231</v>
+        <v>237622</v>
       </c>
       <c r="L35" s="19">
-        <v>237622</v>
+        <v>902092</v>
       </c>
       <c r="M35" s="19">
-        <v>902092</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>92868</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>52</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1859,8 +1859,8 @@
       <c r="E38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>31</v>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1871,8 +1871,8 @@
       <c r="I38" s="11">
         <v>0</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>31</v>
+      <c r="J38" s="11">
+        <v>0</v>
       </c>
       <c r="K38" s="11">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1905,22 +1905,22 @@
         <v>0</v>
       </c>
       <c r="I39" s="15">
-        <v>0</v>
+        <v>60310</v>
       </c>
       <c r="J39" s="15">
-        <v>32527</v>
+        <v>7806</v>
       </c>
       <c r="K39" s="15">
-        <v>7806</v>
+        <v>-10564</v>
       </c>
       <c r="L39" s="15">
-        <v>-10564</v>
+        <v>133462</v>
       </c>
       <c r="M39" s="15">
-        <v>133462</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>52628</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>-113800</v>
       </c>
       <c r="G40" s="11">
-        <v>-113800</v>
+        <v>24920</v>
       </c>
       <c r="H40" s="11">
-        <v>24920</v>
+        <v>-27215</v>
       </c>
       <c r="I40" s="11">
-        <v>-27215</v>
+        <v>-27783</v>
       </c>
       <c r="J40" s="11">
         <v>0</v>
@@ -1950,25 +1950,25 @@
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>-139740</v>
       </c>
       <c r="M40" s="11">
-        <v>-139740</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-19623</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="F41" s="15">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="G41" s="15">
         <v>0</v>
@@ -1992,22 +1992,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
         <v>-400000</v>
       </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
       <c r="F42" s="11">
-        <v>-400000</v>
+        <v>-270000</v>
       </c>
       <c r="G42" s="11">
-        <v>-270000</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
         <v>0</v>
@@ -2028,28 +2028,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>-24646</v>
+        <v>-2291</v>
       </c>
       <c r="E43" s="15">
-        <v>-2291</v>
+        <v>-24917</v>
       </c>
       <c r="F43" s="15">
-        <v>-24917</v>
+        <v>-15846</v>
       </c>
       <c r="G43" s="15">
-        <v>-15846</v>
+        <v>-89</v>
       </c>
       <c r="H43" s="15">
-        <v>-89</v>
+        <v>-864</v>
       </c>
       <c r="I43" s="15">
-        <v>-864</v>
+        <v>0</v>
       </c>
       <c r="J43" s="15">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2352,151 +2352,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>-39521</v>
+        <v>20001</v>
       </c>
       <c r="E52" s="11">
-        <v>20001</v>
+        <v>-60881</v>
       </c>
       <c r="F52" s="11">
-        <v>-60881</v>
+        <v>-1536</v>
       </c>
       <c r="G52" s="11">
-        <v>-1536</v>
+        <v>-2399</v>
       </c>
       <c r="H52" s="11">
-        <v>-2399</v>
+        <v>-145453</v>
       </c>
       <c r="I52" s="11">
-        <v>-145453</v>
+        <v>-216372</v>
       </c>
       <c r="J52" s="11">
-        <v>-216372</v>
+        <v>-7832</v>
       </c>
       <c r="K52" s="11">
-        <v>-7832</v>
+        <v>-1034</v>
       </c>
       <c r="L52" s="11">
-        <v>-1034</v>
+        <v>-1004454</v>
       </c>
       <c r="M52" s="11">
-        <v>-1004454</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-11673</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
-        <v>-64167</v>
+        <v>17710</v>
       </c>
       <c r="E53" s="17">
-        <v>17710</v>
+        <v>-215798</v>
       </c>
       <c r="F53" s="17">
-        <v>-215798</v>
+        <v>-401182</v>
       </c>
       <c r="G53" s="17">
-        <v>-401182</v>
+        <v>22432</v>
       </c>
       <c r="H53" s="17">
-        <v>22432</v>
+        <v>-173532</v>
       </c>
       <c r="I53" s="17">
-        <v>-173532</v>
+        <v>-183845</v>
       </c>
       <c r="J53" s="17">
-        <v>-183845</v>
+        <v>-26</v>
       </c>
       <c r="K53" s="17">
-        <v>-26</v>
+        <v>-11598</v>
       </c>
       <c r="L53" s="17">
-        <v>-11598</v>
+        <v>-1010732</v>
       </c>
       <c r="M53" s="17">
-        <v>-1010732</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>21332</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
-        <v>-26846</v>
+        <v>484193</v>
       </c>
       <c r="E54" s="19">
-        <v>484193</v>
+        <v>-429992</v>
       </c>
       <c r="F54" s="19">
-        <v>-429992</v>
+        <v>351466</v>
       </c>
       <c r="G54" s="19">
-        <v>351466</v>
+        <v>1254074</v>
       </c>
       <c r="H54" s="19">
-        <v>1254074</v>
+        <v>5428</v>
       </c>
       <c r="I54" s="19">
-        <v>5428</v>
+        <v>-998618</v>
       </c>
       <c r="J54" s="19">
-        <v>-998618</v>
+        <v>-64257</v>
       </c>
       <c r="K54" s="19">
-        <v>-64257</v>
+        <v>226024</v>
       </c>
       <c r="L54" s="19">
-        <v>226024</v>
+        <v>-108640</v>
       </c>
       <c r="M54" s="19">
-        <v>-108640</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>114200</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
-        <v>358922</v>
+        <v>332076</v>
       </c>
       <c r="E55" s="15">
-        <v>332076</v>
+        <v>816269</v>
       </c>
       <c r="F55" s="15">
-        <v>816269</v>
+        <v>386277</v>
       </c>
       <c r="G55" s="15">
-        <v>386277</v>
+        <v>737743</v>
       </c>
       <c r="H55" s="15">
-        <v>737743</v>
+        <v>1991817</v>
       </c>
       <c r="I55" s="15">
-        <v>1991817</v>
+        <v>1997299</v>
       </c>
       <c r="J55" s="15">
-        <v>1997299</v>
+        <v>998681</v>
       </c>
       <c r="K55" s="15">
-        <v>998681</v>
+        <v>934424</v>
       </c>
       <c r="L55" s="15">
-        <v>934424</v>
+        <v>1160448</v>
       </c>
       <c r="M55" s="15">
-        <v>1160448</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1053236</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2514,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I56" s="11">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -2526,49 +2526,49 @@
         <v>0</v>
       </c>
       <c r="L56" s="11">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="M56" s="11">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>332076</v>
+        <v>816269</v>
       </c>
       <c r="E57" s="17">
-        <v>816269</v>
+        <v>386277</v>
       </c>
       <c r="F57" s="17">
-        <v>386277</v>
+        <v>737743</v>
       </c>
       <c r="G57" s="17">
-        <v>737743</v>
+        <v>1991817</v>
       </c>
       <c r="H57" s="17">
-        <v>1991817</v>
+        <v>1997299</v>
       </c>
       <c r="I57" s="17">
-        <v>1997299</v>
+        <v>998681</v>
       </c>
       <c r="J57" s="17">
-        <v>998681</v>
+        <v>934424</v>
       </c>
       <c r="K57" s="17">
-        <v>934424</v>
+        <v>1160448</v>
       </c>
       <c r="L57" s="17">
-        <v>1160448</v>
+        <v>1053236</v>
       </c>
       <c r="M57" s="17">
-        <v>1053236</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1167436</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
